--- a/back-end/src/main/java/org/example/back/data/model/学生其他成绩模板.xlsx
+++ b/back-end/src/main/java/org/example/back/data/model/学生其他成绩模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Canary\CAMS_Repository\back-end\src\main\java\org\example\back\data\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFB34FF-3FB5-4C5E-A582-E430E3CE3945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B73356-2D06-45EA-8FB0-77D2379991FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,15 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>学号</t>
   </si>
   <si>
     <t>姓名</t>
-  </si>
-  <si>
-    <t>班级</t>
   </si>
   <si>
     <t>其他得分1</t>
@@ -373,21 +370,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="8.58203125" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
-    <col min="4" max="5" width="8.33203125"/>
+    <col min="3" max="4" width="8.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,9 +396,6 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
